--- a/medicine/Psychotrope/Bière_de_Bretagne/Bière_de_Bretagne.xlsx
+++ b/medicine/Psychotrope/Bière_de_Bretagne/Bière_de_Bretagne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_de_Bretagne</t>
+          <t>Bière_de_Bretagne</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bière de Bretagne désigne la bière brassée en Bretagne. 
-À la suite de la création de la Brasserie Coreff en 1985, pionnière du renouveau de la bière artisanale en France, la Bretagne a vu l'ouverture d'environ 80 sites[1].
+À la suite de la création de la Brasserie Coreff en 1985, pionnière du renouveau de la bière artisanale en France, la Bretagne a vu l'ouverture d'environ 80 sites.
 Les caractéristiques de leurs bières sont variées, mélangeant quelques saveurs parfois spécifiques à la Bretagne (algues, sarrasin, eau de mer...), et de diverses inspirations brassicoles (belges, anglaises, allemandes...)[Lesquelles ?].
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bi%C3%A8re_de_Bretagne</t>
+          <t>Bière_de_Bretagne</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Côtes-d'Armor
-La Brasserie Artisanale Touken - Philomenn (br), dans le Trégor, à Tréguier, Côtes-d'Armor, produit :
+          <t>Côtes-d'Armor</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La Brasserie Artisanale Touken - Philomenn (br), dans le Trégor, à Tréguier, Côtes-d'Armor, produit :
 La Philomenn Blonde (Melen), la Philomenn Rousse (Ruz), la Philomenn Stout, la Philomenn Triple ("Spoum"), la Philomenn Tourbée, la Philomenn Blanche, la Philomenn Brune ("Spoum des Talus" - Mûres sauvages).
 La brasserie de Kerampont, à Lannion, Côtes-d'Armor, produit :
 La Tomm a ra (Ambrée au piment), la Kirio (blonde), la Gwin zegal (blanche), la Ebrel (ambrée), la Kurun (Porter)
@@ -530,9 +547,43 @@
 Rince Monseigneur, blonde ; Tourne Vice, ambrée; Bielle de jour, blondche  ; Saoul capot, brune tourbée ; Pète culasse, noire ; Space Grobul', spéciale.
 La Brasserie Uncle à Etable-sur-Mer, Côtes-d'Armor.
 La Brasstillerie KanArFoll à Pleumeur-Bodou, Côtes-d'Armor, produit :
-L'Authentique (blonde), la Rouzig (rousse), la American IPA (IPA), la Grivoise, la Bière d'hiver.
-Finistère
-La Brasserie des Abers, à Ploudalmezeau, Finistère, dans le Léon, produit :
+L'Authentique (blonde), la Rouzig (rousse), la American IPA (IPA), la Grivoise, la Bière d'hiver.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bière_de_Bretagne</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_de_Bretagne</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Les brasseries en Bretagne</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Finistère</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Brasserie des Abers, à Ploudalmezeau, Finistère, dans le Léon, produit :
 La Mutine, la Ouessane, la Fleur des Iles, la Dolmen.
 La Brasserie An Alarc'h, à La Feuillée, Finistère, produit :
 La Hini Du, la Tantad, la Melig, la Mallozh Ruz, la Penn Gwenn, la Kerzu, la Hadarzu, la Damruz
@@ -549,9 +600,43 @@
 La Brasserie de Pouldreuzic à Pouldreuzic, Finistère, produit :
 la Penhors Blonde, la Penhors Ambrée, la Penhors Stout, la Penhors Brune, la Penhors Blanche, la Ambrée Bio, la Blonde Bio.
 La Brasserie de Cézon à Lannilis produit :
-La Cézon de printemps (ale), la Cézon d'été, la Cézon d'automne (stout), la Cézon d'hiver
-Ille-et-Vilaine
-La Microbrasserie RZN City Ales à Rennes, produit :
+La Cézon de printemps (ale), la Cézon d'été, la Cézon d'automne (stout), la Cézon d'hiver</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bière_de_Bretagne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_de_Bretagne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Les brasseries en Bretagne</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ille-et-Vilaine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>La Microbrasserie RZN City Ales à Rennes, produit :
 La Vieux Canal (Special Bitter), La Vilaine IPA (English IPA), La Paresse, brassin limité (Blonde Ale), La Bagoul Porter
 La Brasserie d'Emeraude, à La Richardais, sur la Côte d'Emeraude, produit :
 La Télès, la Pylône.
@@ -561,9 +646,43 @@
 L'Ombre jaune, l'Ombre blanche, l'Ombre rouge, l'Ombre bleue.
 La Brasserie du Tonnelier à Erbrée, produit :
 la bière du tonnelier blonde et la bière du tonnelier rousse
-La Brasserie Drao, à Rennes.
-Morbihan
-La Brasserie de l'Hermin, à Plouhinec, Morbihan, produit 5 bières différentes : l'Arsouille (blonde), la Vieille Canaille (brune), la Petitre Fripouille (ambrée), la Triple Buse et la Nénette.
+La Brasserie Drao, à Rennes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Bière_de_Bretagne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_de_Bretagne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Les brasseries en Bretagne</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Morbihan</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Brasserie de l'Hermin, à Plouhinec, Morbihan, produit 5 bières différentes : l'Arsouille (blonde), la Vieille Canaille (brune), la Petitre Fripouille (ambrée), la Triple Buse et la Nénette.
 La brasserie La Belle Joie, à Kervignac, Morbihan, produit :
 La Covale blanche, la Pilote en mousse blonde, la Chonchon ambrée, la Gamme 56 Brune au blé noir, la Kervignacoise triple, la Boom APA houblonnée.
 La Brasserie Lancelot, à Le Roc-Saint-André, produit, outre le Breizh Cola, 8 bières différentes :
@@ -577,9 +696,43 @@
 La Brasserie Artisanale de Languidic, à Kerdaniel, Languidic, produit :
 La Mathurin (ambrée), la Félicitée (blanche). (Bières de fermentation haute non filtrées, non pasteurisées).
 L'Âne Brasseur à Saint Aignan, produit :
-L'Exploratrice (brune maltée 5 % de type porter), La Grande Exploratrice (brune maltée 9 % de type barleywine), La Voyageuse (blonde houblonnée 7 % de type IPA), Les indécises (Bières ponctuelles variables), La Gouez (Bière sauvage, vieillie plusieurs années en fût de chênes).
-Loire-Atlantique
-La Brasserie du Bouffay, à Carquefou, produit :
+L'Exploratrice (brune maltée 5 % de type porter), La Grande Exploratrice (brune maltée 9 % de type barleywine), La Voyageuse (blonde houblonnée 7 % de type IPA), Les indécises (Bières ponctuelles variables), La Gouez (Bière sauvage, vieillie plusieurs années en fût de chênes).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bière_de_Bretagne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bi%C3%A8re_de_Bretagne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Les brasseries en Bretagne</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Loire-Atlantique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Brasserie du Bouffay, à Carquefou, produit :
 La Blonde du Bouffay, l'Ambrée du Bouffay, la Blanche du Bouffay, la Braise du Bouffay, la Bière de Noël, la Bio du Bouffay
 La Brasserie de la Côte de Jade à Pornic,  produit :
 La Brigantine (blonde), la Brigantine (ambrée), La Brigantine (Blanche et Blanche Bio), la Cape crique (fraise/framboise), la Cape crique (mure/cassis)
